--- a/test/metadata/extra_metadata/made_up_data.xlsx
+++ b/test/metadata/extra_metadata/made_up_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent.tu\Desktop\test\220822\metadata\extra_metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phila-my.sharepoint.com/personal/vincent_tu_phila_gov/Documents/RmdTemplates/test/metadata/extra_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90058F8B-8715-4C89-98D3-047FC838DAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{90058F8B-8715-4C89-98D3-047FC838DAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FCF6918-0EF9-44DA-BF0A-FD79E6ACE81A}"/>
   <bookViews>
-    <workbookView xWindow="32370" yWindow="3090" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="6090" windowWidth="27240" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHL" sheetId="1" r:id="rId1"/>
@@ -85,31 +85,31 @@
     <t>Pediatric</t>
   </si>
   <si>
-    <t>H21-COV31_01</t>
-  </si>
-  <si>
-    <t>H21-COV31_02</t>
-  </si>
-  <si>
-    <t>H21-COV31_03</t>
-  </si>
-  <si>
-    <t>H21-COV31_04</t>
-  </si>
-  <si>
-    <t>H21-COV31_05</t>
-  </si>
-  <si>
-    <t>H21-COV31_37</t>
-  </si>
-  <si>
-    <t>H22-COV37_38</t>
-  </si>
-  <si>
-    <t>H22-COV37_39</t>
-  </si>
-  <si>
-    <t>H22-COV37_40</t>
+    <t>H21-COV31-02</t>
+  </si>
+  <si>
+    <t>H21-COV31-03</t>
+  </si>
+  <si>
+    <t>H21-COV31-04</t>
+  </si>
+  <si>
+    <t>H21-COV31-05</t>
+  </si>
+  <si>
+    <t>H21-COV31-37</t>
+  </si>
+  <si>
+    <t>H22-COV37-38</t>
+  </si>
+  <si>
+    <t>H22-COV37-39</t>
+  </si>
+  <si>
+    <t>H22-COV37-40</t>
+  </si>
+  <si>
+    <t>H21-COV31-01</t>
   </si>
 </sst>
 </file>
@@ -370,8 +370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -470,7 +470,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -498,7 +498,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -528,7 +528,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -558,7 +558,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="3"/>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -588,7 +588,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -618,7 +618,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
       <c r="E8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -648,7 +648,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -678,7 +678,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -708,7 +708,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
